--- a/data/trans_orig/P45C_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>102763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85194</v>
+        <v>83447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123127</v>
+        <v>121056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1759217812244948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1458450917044846</v>
+        <v>0.1428536566276981</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2107835474980859</v>
+        <v>0.2072382280464202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -765,19 +765,19 @@
         <v>83614</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66829</v>
+        <v>66127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101096</v>
+        <v>102046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09078444384181368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0725608573886629</v>
+        <v>0.07179807134489201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1097656686731498</v>
+        <v>0.1107975290396774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>183</v>
@@ -786,19 +786,19 @@
         <v>186377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163848</v>
+        <v>161397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>212791</v>
+        <v>214228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1238257311876449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1088578227073318</v>
+        <v>0.1072294981632392</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1413747699265393</v>
+        <v>0.1423295998915522</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>481378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>461014</v>
+        <v>463085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>498947</v>
+        <v>500694</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8240782187755052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7892164525019141</v>
+        <v>0.7927617719535799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8541549082955155</v>
+        <v>0.8571463433723019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>801</v>
@@ -836,19 +836,19 @@
         <v>837399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>819917</v>
+        <v>818967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>854184</v>
+        <v>854886</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9092155561581863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8902343313268503</v>
+        <v>0.8892024709603228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9274391426113371</v>
+        <v>0.9282019286551081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1275</v>
@@ -857,19 +857,19 @@
         <v>1318777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1292363</v>
+        <v>1290926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1341306</v>
+        <v>1343757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8761742688123551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8586252300734606</v>
+        <v>0.8576704001084479</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8911421772926681</v>
+        <v>0.8927705018367609</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>165322</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143185</v>
+        <v>143651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189959</v>
+        <v>188620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.15350061240562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1329466717026381</v>
+        <v>0.1333795645562753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1763763460538958</v>
+        <v>0.1751328583010983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -982,19 +982,19 @@
         <v>128023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109165</v>
+        <v>109075</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150654</v>
+        <v>149824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1210572179755762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1032252316800683</v>
+        <v>0.1031406181614387</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1424574492663228</v>
+        <v>0.141672538993344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>294</v>
@@ -1003,19 +1003,19 @@
         <v>293345</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263791</v>
+        <v>264055</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>325789</v>
+        <v>323273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1374269102787896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1235816536633035</v>
+        <v>0.1237051029860737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1526265872511953</v>
+        <v>0.151447631141184</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>911690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887053</v>
+        <v>888392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>933827</v>
+        <v>933361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.84649938759438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8236236539461043</v>
+        <v>0.8248671416989019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8670533282973619</v>
+        <v>0.866620435443725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>901</v>
@@ -1053,19 +1053,19 @@
         <v>929515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906884</v>
+        <v>907714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>948373</v>
+        <v>948463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8789427820244239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8575425507336774</v>
+        <v>0.8583274610066552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.896774768319932</v>
+        <v>0.8968593818385612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1788</v>
@@ -1074,19 +1074,19 @@
         <v>1841205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1808761</v>
+        <v>1811277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870759</v>
+        <v>1870495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8625730897212105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8473734127488053</v>
+        <v>0.8485523688588161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8764183463366966</v>
+        <v>0.8762948970139264</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>172138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149024</v>
+        <v>148465</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198250</v>
+        <v>196329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1536160669760495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1329884442559033</v>
+        <v>0.1324903392700755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1769178332640716</v>
+        <v>0.1752039892020794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -1199,19 +1199,19 @@
         <v>136182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115938</v>
+        <v>114267</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158238</v>
+        <v>157650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1372733105638565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1168676537522867</v>
+        <v>0.1151829058735103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1595061811449774</v>
+        <v>0.1589131238636055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -1220,19 +1220,19 @@
         <v>308320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277262</v>
+        <v>274555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>339161</v>
+        <v>339906</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1459418165069076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1312404362297786</v>
+        <v>0.1299590604051345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1605401764507996</v>
+        <v>0.1608927133750112</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>948438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>922326</v>
+        <v>924247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>971552</v>
+        <v>972111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8463839330239505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8230821667359283</v>
+        <v>0.8247960107979205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8670115557440967</v>
+        <v>0.8675096607299245</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>841</v>
@@ -1270,19 +1270,19 @@
         <v>855867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>833811</v>
+        <v>834399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>876111</v>
+        <v>877782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8627266894361435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8404938188550225</v>
+        <v>0.8410868761363943</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8831323462477132</v>
+        <v>0.8848170941264896</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1776</v>
@@ -1291,19 +1291,19 @@
         <v>1804305</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1773464</v>
+        <v>1772719</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1835363</v>
+        <v>1838070</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8540581834930924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8394598235492005</v>
+        <v>0.8391072866249888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8687595637702215</v>
+        <v>0.8700409395948656</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>66890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53093</v>
+        <v>52790</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81742</v>
+        <v>82628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1515336024655489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1202772082320188</v>
+        <v>0.11959034574536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1851794899986844</v>
+        <v>0.1871869535061782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1416,19 +1416,19 @@
         <v>64027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51348</v>
+        <v>50638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79451</v>
+        <v>79082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1904599843123498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1527434119891928</v>
+        <v>0.1506308033488836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2363414222594266</v>
+        <v>0.2352419915939683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -1437,19 +1437,19 @@
         <v>130917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111094</v>
+        <v>112820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152999</v>
+        <v>152293</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1683623706792122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.142869206569374</v>
+        <v>0.1450890955387355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.196760850258355</v>
+        <v>0.1958521116810396</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>374531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359679</v>
+        <v>358793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388328</v>
+        <v>388631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8484663975344511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8148205100013156</v>
+        <v>0.8128130464938219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8797227917679811</v>
+        <v>0.8804096542546399</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1487,19 +1487,19 @@
         <v>272144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256720</v>
+        <v>257089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284823</v>
+        <v>285533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8095400156876502</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7636585777405733</v>
+        <v>0.7647580084060317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8472565880108072</v>
+        <v>0.8493691966511164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -1508,19 +1508,19 @@
         <v>646674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624592</v>
+        <v>625298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>666497</v>
+        <v>664771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8316376293207878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8032391497416449</v>
+        <v>0.8041478883189604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8571307934306259</v>
+        <v>0.8549109044612644</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>507114</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>468492</v>
+        <v>466641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>549149</v>
+        <v>550260</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1573348205772785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1453521757881958</v>
+        <v>0.1447780685049625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1703764130303562</v>
+        <v>0.1707211777603163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>414</v>
@@ -1633,19 +1633,19 @@
         <v>411845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>372009</v>
+        <v>373247</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>449600</v>
+        <v>447671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1245460316277667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1124993371641398</v>
+        <v>0.1128735793619712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1359635685540445</v>
+        <v>0.1353800284861298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>914</v>
@@ -1654,19 +1654,19 @@
         <v>918959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>866983</v>
+        <v>868503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>971245</v>
+        <v>978931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1407304843728513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1327708189565637</v>
+        <v>0.1330035801356139</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.148737644646487</v>
+        <v>0.1499146105776676</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2716036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2674001</v>
+        <v>2672890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2754658</v>
+        <v>2756509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8426651794227216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8296235869696439</v>
+        <v>0.8292788222396835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8546478242118041</v>
+        <v>0.8552219314950376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2812</v>
@@ -1704,19 +1704,19 @@
         <v>2894925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2857170</v>
+        <v>2859099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2934761</v>
+        <v>2933523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8754539683722333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8640364314459555</v>
+        <v>0.8646199715138702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8875006628358604</v>
+        <v>0.887126420638029</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5472</v>
@@ -1725,19 +1725,19 @@
         <v>5610962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5558676</v>
+        <v>5550990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5662938</v>
+        <v>5661418</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8592695156271487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.851262355353513</v>
+        <v>0.8500853894223324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8672291810434363</v>
+        <v>0.866996419864386</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>131548</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112539</v>
+        <v>110300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154631</v>
+        <v>153271</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1270556042093856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1086957835676737</v>
+        <v>0.1065334333798954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1493510304620504</v>
+        <v>0.1480367048758839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -2090,19 +2090,19 @@
         <v>114897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94728</v>
+        <v>95708</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136893</v>
+        <v>136245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1037582465725204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08554407123675205</v>
+        <v>0.0864295305247114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1236216039926672</v>
+        <v>0.1230362092749774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -2111,19 +2111,19 @@
         <v>246445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218765</v>
+        <v>216196</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274892</v>
+        <v>276033</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1150155018002727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.102097479535269</v>
+        <v>0.1008984774728633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1282914615196624</v>
+        <v>0.1288243388679725</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>903807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>880724</v>
+        <v>882084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>922816</v>
+        <v>925055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8729443957906144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8506489695379496</v>
+        <v>0.8519632951241159</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8913042164323263</v>
+        <v>0.8934665666201046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>910</v>
@@ -2161,19 +2161,19 @@
         <v>992459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>970463</v>
+        <v>971111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1012628</v>
+        <v>1011648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8962417534274796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8763783960073328</v>
+        <v>0.8769637907250226</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.914455928763248</v>
+        <v>0.9135704694752886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1749</v>
@@ -2182,19 +2182,19 @@
         <v>1896266</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1867819</v>
+        <v>1866678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1923946</v>
+        <v>1926515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8849844981997272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8717085384803376</v>
+        <v>0.8711756611320275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.897902520464731</v>
+        <v>0.8991015225271368</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>206933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181820</v>
+        <v>182519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234317</v>
+        <v>234302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2126184674128083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1868159577658712</v>
+        <v>0.1875337896298174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2407557883048633</v>
+        <v>0.2407393835633676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -2307,19 +2307,19 @@
         <v>160036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136665</v>
+        <v>139246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185420</v>
+        <v>186319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1479488880167615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1263428507035155</v>
+        <v>0.1287289856781674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1714159090636884</v>
+        <v>0.1722461828084193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -2328,19 +2328,19 @@
         <v>366969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>335274</v>
+        <v>329006</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>404453</v>
+        <v>402440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1785773649607193</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1631539342702808</v>
+        <v>0.1601036073118991</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1968180060359504</v>
+        <v>0.1958386914849809</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>766325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>738941</v>
+        <v>738956</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>791438</v>
+        <v>790739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7873815325871917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7592442116951366</v>
+        <v>0.7592606164366323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8131840422341287</v>
+        <v>0.8124662103701826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -2378,19 +2378,19 @@
         <v>921663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896279</v>
+        <v>895380</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>945034</v>
+        <v>942453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8520511119832385</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8285840909363117</v>
+        <v>0.8277538171915809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8736571492964845</v>
+        <v>0.8712710143218327</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1575</v>
@@ -2399,19 +2399,19 @@
         <v>1687988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1650504</v>
+        <v>1652517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1719683</v>
+        <v>1725951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8214226350392807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8031819939640495</v>
+        <v>0.8041613085150191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8368460657297192</v>
+        <v>0.8398963926881009</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>161087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139658</v>
+        <v>137983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185351</v>
+        <v>186359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1839220421216852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1594559292239314</v>
+        <v>0.1575436386819173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2116258518010119</v>
+        <v>0.2127768134591715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -2524,19 +2524,19 @@
         <v>134158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113961</v>
+        <v>112532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157724</v>
+        <v>155248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1543163473926165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1310847710990339</v>
+        <v>0.1294406264338567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1814236433181088</v>
+        <v>0.1785753937635052</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>285</v>
@@ -2545,19 +2545,19 @@
         <v>295244</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262612</v>
+        <v>268280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>325673</v>
+        <v>330048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1691741082653725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1504758798851143</v>
+        <v>0.1537233848783555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1866095019747433</v>
+        <v>0.1891165079571875</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>714755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690491</v>
+        <v>689483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>736184</v>
+        <v>737859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8160779578783148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7883741481989881</v>
+        <v>0.7872231865408287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8405440707760686</v>
+        <v>0.8424563613180828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>688</v>
@@ -2595,19 +2595,19 @@
         <v>735210</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>711644</v>
+        <v>714120</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>755407</v>
+        <v>756836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8456836526073835</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8185763566818908</v>
+        <v>0.8214246062364946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8689152289009655</v>
+        <v>0.8705593735661432</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1351</v>
@@ -2616,19 +2616,19 @@
         <v>1449966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1419537</v>
+        <v>1415162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1482598</v>
+        <v>1476930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8308258917346275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.813390498025257</v>
+        <v>0.8108834920428126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8495241201148859</v>
+        <v>0.8462766151216446</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>95452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79139</v>
+        <v>77766</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114879</v>
+        <v>114822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1920730489532314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1592475473821369</v>
+        <v>0.1564839346250445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2311643022656001</v>
+        <v>0.2310495695757893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -2741,19 +2741,19 @@
         <v>64495</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49524</v>
+        <v>51264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81030</v>
+        <v>82603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1435075341714697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1101967634075939</v>
+        <v>0.1140680655009946</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.180299413326779</v>
+        <v>0.1837997660461486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -2762,19 +2762,19 @@
         <v>159947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137054</v>
+        <v>138332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184925</v>
+        <v>184655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1690101201929889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1448199468758845</v>
+        <v>0.146170230096978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1954033481765682</v>
+        <v>0.1951178257544722</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>401506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>382079</v>
+        <v>382136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417819</v>
+        <v>419192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8079269510467687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7688356977343999</v>
+        <v>0.7689504304242109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8407524526178631</v>
+        <v>0.8435160653749558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -2812,19 +2812,19 @@
         <v>384922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368387</v>
+        <v>366814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>399893</v>
+        <v>398153</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8564924658285303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8197005866732209</v>
+        <v>0.816200233953851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8898032365924059</v>
+        <v>0.8859319344990051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>715</v>
@@ -2833,19 +2833,19 @@
         <v>786428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761450</v>
+        <v>761720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>809321</v>
+        <v>808043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8309898798070111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8045966518234319</v>
+        <v>0.8048821742455278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8551800531241155</v>
+        <v>0.8538297699030218</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>595019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>550075</v>
+        <v>550792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>641732</v>
+        <v>634749</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1759676069682594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1626761421125755</v>
+        <v>0.1628880686940557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1897821140043405</v>
+        <v>0.1877169435167674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>447</v>
@@ -2958,19 +2958,19 @@
         <v>473586</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>433503</v>
+        <v>433901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>512247</v>
+        <v>520113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.135007842848731</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.123581216966279</v>
+        <v>0.1236945253819457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.146029304476809</v>
+        <v>0.1482714927317602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1027</v>
@@ -2979,19 +2979,19 @@
         <v>1068605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1005623</v>
+        <v>1007670</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1128122</v>
+        <v>1133043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1551118946761934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1459698363267813</v>
+        <v>0.1462668555815302</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1637510382872847</v>
+        <v>0.1644651955359592</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2786395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2739682</v>
+        <v>2746665</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2831339</v>
+        <v>2830622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8240323930317406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8102178859956594</v>
+        <v>0.8122830564832324</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8373238578874245</v>
+        <v>0.8371119313059442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2804</v>
@@ -3029,19 +3029,19 @@
         <v>3034254</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2995593</v>
+        <v>2987727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3074337</v>
+        <v>3073939</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.864992157151269</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8539706955231908</v>
+        <v>0.8517285072682398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8764187830337209</v>
+        <v>0.8763054746180543</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5390</v>
@@ -3050,19 +3050,19 @@
         <v>5820649</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5761132</v>
+        <v>5756211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5883631</v>
+        <v>5881584</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8448881053238066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8362489617127158</v>
+        <v>0.8355348044640408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8540301636732187</v>
+        <v>0.8537331444184699</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>141417</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119466</v>
+        <v>120056</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165460</v>
+        <v>163696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1264076075171725</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1067870311396759</v>
+        <v>0.1073139367601748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1478990613842724</v>
+        <v>0.1463221761289552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>128</v>
@@ -3415,19 +3415,19 @@
         <v>131035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110344</v>
+        <v>111044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155599</v>
+        <v>154662</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1050675464402312</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08847694837672683</v>
+        <v>0.08903792352865843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1247640819489024</v>
+        <v>0.124012656257762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>258</v>
@@ -3436,19 +3436,19 @@
         <v>272451</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241412</v>
+        <v>242105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303935</v>
+        <v>302462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1151584339491988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1020387519118447</v>
+        <v>0.1023317218269669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1284657559351051</v>
+        <v>0.1278432303033202</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>977318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>953275</v>
+        <v>955039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>999269</v>
+        <v>998679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8735923924828275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8521009386157276</v>
+        <v>0.853677823871045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.893212968860324</v>
+        <v>0.8926860632398252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1050</v>
@@ -3486,19 +3486,19 @@
         <v>1116114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1091550</v>
+        <v>1092487</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1136805</v>
+        <v>1136105</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8949324535597688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8752359180510975</v>
+        <v>0.8759873437422377</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9115230516232727</v>
+        <v>0.910962076471341</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1978</v>
@@ -3507,19 +3507,19 @@
         <v>2093433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2061949</v>
+        <v>2063422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2124472</v>
+        <v>2123779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8848415660508012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8715342440648949</v>
+        <v>0.8721567696966798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8979612480881554</v>
+        <v>0.8976682781730331</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>125992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105777</v>
+        <v>107759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145995</v>
+        <v>148545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1391131511143064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1167927686421802</v>
+        <v>0.1189805455105132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1611984898448619</v>
+        <v>0.1640144166479848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -3632,19 +3632,19 @@
         <v>159112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135681</v>
+        <v>136390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182811</v>
+        <v>184128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1586441817126888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1352818317892151</v>
+        <v>0.135989332436476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1822735436260282</v>
+        <v>0.1835866635958455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>276</v>
@@ -3653,19 +3653,19 @@
         <v>285104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>255960</v>
+        <v>254701</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>318934</v>
+        <v>317754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1493763211740093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1341063813004873</v>
+        <v>0.1334471963337896</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1671007499508893</v>
+        <v>0.166482787629405</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>779691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>759688</v>
+        <v>757138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>799906</v>
+        <v>797924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8608868488856936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8388015101551382</v>
+        <v>0.8359855833520152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8832072313578198</v>
+        <v>0.8810194544894868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>794</v>
@@ -3703,19 +3703,19 @@
         <v>843836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>820137</v>
+        <v>818820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>867267</v>
+        <v>866558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8413558182873112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8177264563739718</v>
+        <v>0.8164133364041545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8647181682107848</v>
+        <v>0.8640106675635241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1550</v>
@@ -3724,19 +3724,19 @@
         <v>1623527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1589697</v>
+        <v>1590877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1652671</v>
+        <v>1653930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8506236788259908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8328992500491109</v>
+        <v>0.833517212370595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8658936186995128</v>
+        <v>0.8665528036662106</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>115743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95742</v>
+        <v>96118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137932</v>
+        <v>136256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1417662785086549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1172687909089543</v>
+        <v>0.1177292174707461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1689444833477224</v>
+        <v>0.1668914395835511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -3849,19 +3849,19 @@
         <v>116598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97944</v>
+        <v>94094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138857</v>
+        <v>136175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1522247134069079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1278709044703956</v>
+        <v>0.1228448961771748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1812851331796298</v>
+        <v>0.1777837727041365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -3870,19 +3870,19 @@
         <v>232341</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205205</v>
+        <v>204007</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>262760</v>
+        <v>261622</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1468287018685576</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.129680076855795</v>
+        <v>0.1289227299744385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1660517792194856</v>
+        <v>0.1653330615957441</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>700691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678502</v>
+        <v>680178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>720692</v>
+        <v>720316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8582337214913451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8310555166522775</v>
+        <v>0.8331085604164489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8827312090910453</v>
+        <v>0.8822707825292539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -3920,19 +3920,19 @@
         <v>649363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627104</v>
+        <v>629786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668017</v>
+        <v>671867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8477752865930921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8187148668203702</v>
+        <v>0.8222162272958635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8721290955296044</v>
+        <v>0.8771551038228254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1283</v>
@@ -3941,19 +3941,19 @@
         <v>1350054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1319635</v>
+        <v>1320773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1377190</v>
+        <v>1378388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8531712981314423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8339482207805142</v>
+        <v>0.8346669384042559</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8703199231442049</v>
+        <v>0.8710772700255615</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>70003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55980</v>
+        <v>55033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88948</v>
+        <v>87136</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1404618764483701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.112324851472669</v>
+        <v>0.1104243653670421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1784761961044785</v>
+        <v>0.1748393208639334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -4066,19 +4066,19 @@
         <v>67713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52124</v>
+        <v>53510</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86127</v>
+        <v>84065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1397862045138882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1076040557537764</v>
+        <v>0.1104665291306568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1778007037548006</v>
+        <v>0.1735440082814888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -4087,19 +4087,19 @@
         <v>137715</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117137</v>
+        <v>116341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160388</v>
+        <v>161764</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1401288442192151</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1191900659782444</v>
+        <v>0.1183805223331934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1631989213804488</v>
+        <v>0.1645994482796768</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>428372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409427</v>
+        <v>411239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442395</v>
+        <v>443342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8595381235516298</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8215238038955216</v>
+        <v>0.8251606791360665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.887675148527331</v>
+        <v>0.8895756346329579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>384</v>
@@ -4137,19 +4137,19 @@
         <v>416688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398274</v>
+        <v>400336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>432277</v>
+        <v>430891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8602137954861118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8221992962451994</v>
+        <v>0.8264559917185111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8923959442462235</v>
+        <v>0.8895334708693432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>784</v>
@@ -4158,19 +4158,19 @@
         <v>845060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>822387</v>
+        <v>821011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>865638</v>
+        <v>866434</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8598711557807849</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8368010786195512</v>
+        <v>0.8354005517203238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8808099340217557</v>
+        <v>0.8816194776668067</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>453155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>415373</v>
+        <v>414065</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>498022</v>
+        <v>498126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1357064166864762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1243919107371097</v>
+        <v>0.1240003909302524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1491430438711097</v>
+        <v>0.1491739717863147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>460</v>
@@ -4283,19 +4283,19 @@
         <v>474458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>435730</v>
+        <v>436997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>516310</v>
+        <v>516223</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1355415147872269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1244779502917552</v>
+        <v>0.1248399429140809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1474977259900477</v>
+        <v>0.1474730521195279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>883</v>
@@ -4304,19 +4304,19 @@
         <v>927612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>871723</v>
+        <v>865379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>986415</v>
+        <v>983781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1356220221217347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1274507837710837</v>
+        <v>0.1265232320273709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1442193867984836</v>
+        <v>0.1438342509721436</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2886072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2841205</v>
+        <v>2841101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2923854</v>
+        <v>2925162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8642935833135238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8508569561288902</v>
+        <v>0.8508260282136854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.87560808926289</v>
+        <v>0.8759996090697476</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2839</v>
@@ -4354,19 +4354,19 @@
         <v>3026001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2984149</v>
+        <v>2984236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3064729</v>
+        <v>3063462</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8644584852127731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8525022740099523</v>
+        <v>0.8525269478804721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8755220497082448</v>
+        <v>0.875160057085919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5595</v>
@@ -4375,19 +4375,19 @@
         <v>5912073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5853270</v>
+        <v>5855904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5967962</v>
+        <v>5974306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8643779778782653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8557806132015163</v>
+        <v>0.8561657490278562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.872549216228916</v>
+        <v>0.873476767972629</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>115974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97557</v>
+        <v>95678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139408</v>
+        <v>137709</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2331687883559518</v>
+        <v>0.2331687883559519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1961415563765307</v>
+        <v>0.1923621927875916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2802838787659203</v>
+        <v>0.2768679553502701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -4740,19 +4740,19 @@
         <v>73834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61153</v>
+        <v>61415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88690</v>
+        <v>90378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1186916187022558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0983073611920344</v>
+        <v>0.09872756966925399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1425741139828866</v>
+        <v>0.145288505119148</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>198</v>
@@ -4761,19 +4761,19 @@
         <v>189808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165997</v>
+        <v>164015</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217127</v>
+        <v>214565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1695552336908262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.148285431463053</v>
+        <v>0.1465142555549817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1939590878146782</v>
+        <v>0.1916706292132583</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>381409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>357975</v>
+        <v>359674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399826</v>
+        <v>401705</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7668312116440481</v>
+        <v>0.7668312116440482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7197161212340797</v>
+        <v>0.7231320446497299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8038584436234694</v>
+        <v>0.8076378072124084</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -4811,19 +4811,19 @@
         <v>548228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533372</v>
+        <v>531684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>560909</v>
+        <v>560647</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8813083812977442</v>
+        <v>0.8813083812977439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8574258860171134</v>
+        <v>0.8547114948808521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9016926388079657</v>
+        <v>0.9012724303307461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1115</v>
@@ -4832,19 +4832,19 @@
         <v>929637</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>902318</v>
+        <v>904880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>953448</v>
+        <v>955430</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8304447663091737</v>
+        <v>0.8304447663091739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8060409121853218</v>
+        <v>0.8083293707867411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8517145685369469</v>
+        <v>0.8534857444450182</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>184201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157595</v>
+        <v>157223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216268</v>
+        <v>214946</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1927098882517248</v>
+        <v>0.1927098882517247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1648747346217721</v>
+        <v>0.1644856841377853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2262573386957644</v>
+        <v>0.2248746058772441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>211</v>
@@ -4957,19 +4957,19 @@
         <v>163919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143112</v>
+        <v>141976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187362</v>
+        <v>186783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1470650111067194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1283971170687715</v>
+        <v>0.1273777134081967</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1680973502424067</v>
+        <v>0.1675783210629185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>364</v>
@@ -4978,19 +4978,19 @@
         <v>348121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>311564</v>
+        <v>312949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>383493</v>
+        <v>386054</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1681374876341168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1504813082919595</v>
+        <v>0.1511499150679577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1852219760407751</v>
+        <v>0.1864587762474777</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>771647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>739580</v>
+        <v>740902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798253</v>
+        <v>798625</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8072901117482754</v>
+        <v>0.8072901117482753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7737426613042354</v>
+        <v>0.7751253941227558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.835125265378228</v>
+        <v>0.8355143158622147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1394</v>
@@ -5028,19 +5028,19 @@
         <v>950685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>927242</v>
+        <v>927821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>971492</v>
+        <v>972628</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8529349888932806</v>
+        <v>0.8529349888932805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8319026497575933</v>
+        <v>0.8324216789370814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8716028829312287</v>
+        <v>0.8726222865918032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2148</v>
@@ -5049,19 +5049,19 @@
         <v>1722331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1686959</v>
+        <v>1684398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1758888</v>
+        <v>1757503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8318625123658833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8147780239592248</v>
+        <v>0.813541223752522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8495186917080404</v>
+        <v>0.8488500849320422</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>157204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133843</v>
+        <v>131774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185902</v>
+        <v>184958</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.150488075249303</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1281250958675968</v>
+        <v>0.1261437733253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1779600261371465</v>
+        <v>0.1770555618034014</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>186</v>
@@ -5174,19 +5174,19 @@
         <v>151126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130805</v>
+        <v>130221</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173656</v>
+        <v>173158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1442530603088116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1248568662575624</v>
+        <v>0.124299293480229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.165758876901073</v>
+        <v>0.1652837541776666</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>325</v>
@@ -5195,19 +5195,19 @@
         <v>308330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275558</v>
+        <v>277306</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>347322</v>
+        <v>340359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1473660799290366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1317028706471869</v>
+        <v>0.1325384164832113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1660025704759224</v>
+        <v>0.1626744897033804</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>887426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>858728</v>
+        <v>859672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>910787</v>
+        <v>912856</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8495119247506971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8220399738628535</v>
+        <v>0.8229444381965987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8718749041324031</v>
+        <v>0.8738562266747002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1330</v>
@@ -5245,19 +5245,19 @@
         <v>896516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>873986</v>
+        <v>874484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>916837</v>
+        <v>917421</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8557469396911883</v>
+        <v>0.8557469396911884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.834241123098927</v>
+        <v>0.8347162458223333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8751431337424376</v>
+        <v>0.8757007065197711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2217</v>
@@ -5266,19 +5266,19 @@
         <v>1783941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1744949</v>
+        <v>1751912</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1816713</v>
+        <v>1814965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8526339200709634</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8339974295240776</v>
+        <v>0.8373255102966196</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8682971293528132</v>
+        <v>0.8674615835167888</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>130877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109863</v>
+        <v>107010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158641</v>
+        <v>157761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.134104664077584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1125729903519777</v>
+        <v>0.1096489205695467</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1625541107137388</v>
+        <v>0.1616519563536941</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -5391,19 +5391,19 @@
         <v>103272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84400</v>
+        <v>85633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122487</v>
+        <v>123409</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1138844983458658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09307309936225799</v>
+        <v>0.09443322167892923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1350737142879719</v>
+        <v>0.1360904520460259</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>228</v>
@@ -5412,19 +5412,19 @@
         <v>234149</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>203104</v>
+        <v>202764</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267274</v>
+        <v>264761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1243657266695058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1078767484437682</v>
+        <v>0.1076959639344471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1419600786854818</v>
+        <v>0.1406250824548794</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>845052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>817288</v>
+        <v>818168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>866066</v>
+        <v>868919</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.865895335922416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8374458892862612</v>
+        <v>0.8383480436463059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8874270096480223</v>
+        <v>0.8903510794304536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1197</v>
@@ -5462,19 +5462,19 @@
         <v>803541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>784326</v>
+        <v>783404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822413</v>
+        <v>821180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8861155016541343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8649262857120282</v>
+        <v>0.8639095479539738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9069269006377421</v>
+        <v>0.9055667783210708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2038</v>
@@ -5483,19 +5483,19 @@
         <v>1648593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1615468</v>
+        <v>1617981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1679638</v>
+        <v>1679978</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8756342733304943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8580399213145179</v>
+        <v>0.8593749175451206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8921232515562315</v>
+        <v>0.892304036065553</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>588256</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>538172</v>
+        <v>539224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>642617</v>
+        <v>639240</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1693414209520367</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1549236279215026</v>
+        <v>0.1552263919918897</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1849901773866257</v>
+        <v>0.1840181969838861</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>620</v>
@@ -5608,19 +5608,19 @@
         <v>492150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>454723</v>
+        <v>456896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>534462</v>
+        <v>533330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1333335613680656</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1231938970009032</v>
+        <v>0.1237825705425867</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1447967329311611</v>
+        <v>0.1444900771746933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1115</v>
@@ -5629,19 +5629,19 @@
         <v>1080407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1014978</v>
+        <v>1015689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1148848</v>
+        <v>1145842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1507913838930399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.141659592193721</v>
+        <v>0.1417587282290813</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1603436934286358</v>
+        <v>0.1599241026834141</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2885533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2831172</v>
+        <v>2834549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2935617</v>
+        <v>2934565</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8306585790479634</v>
+        <v>0.8306585790479633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8150098226133743</v>
+        <v>0.8159818030161138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8450763720784973</v>
+        <v>0.8447736080081102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4679</v>
@@ -5679,19 +5679,19 @@
         <v>3198970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3156658</v>
+        <v>3157790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3236397</v>
+        <v>3234224</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8666664386319344</v>
+        <v>0.8666664386319345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8552032670688394</v>
+        <v>0.8555099228253066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8768061029990971</v>
+        <v>0.8762174294574133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7518</v>
@@ -5700,19 +5700,19 @@
         <v>6084503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6016062</v>
+        <v>6019068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6149932</v>
+        <v>6149221</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8492086161069599</v>
+        <v>0.8492086161069603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8396563065713646</v>
+        <v>0.8400758973165863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8583404078062793</v>
+        <v>0.858241271770919</v>
       </c>
     </row>
     <row r="18">
